--- a/丁波借款.xlsx
+++ b/丁波借款.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
   <si>
     <t>日期</t>
   </si>
@@ -28,7 +28,10 @@
     <t>微信借款，分四次共计1000</t>
   </si>
   <si>
-    <t>银行卡转账</t>
+    <t>银行卡转账（信合转账至建行尾号8870）</t>
+  </si>
+  <si>
+    <t>购物垫付</t>
   </si>
   <si>
     <t>借刷信用卡</t>
@@ -54,12 +57,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,13 +74,28 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -85,58 +103,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,22 +133,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,8 +154,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,11 +170,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -228,187 +224,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,16 +434,34 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -468,16 +482,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -493,15 +507,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,162 +530,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1039,17 +1035,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="10.375"/>
     <col min="2" max="2" width="9.375"/>
-    <col min="3" max="3" width="25.75" customWidth="1"/>
+    <col min="3" max="3" width="38.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1076,10 +1072,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>20181203</v>
+        <v>20181206</v>
       </c>
       <c r="B3" s="1">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -1087,10 +1083,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>20190228</v>
+        <v>20190102</v>
       </c>
       <c r="B4" s="1">
-        <v>23000</v>
+        <v>300</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -1098,10 +1094,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>20180308</v>
+        <v>20190228</v>
       </c>
       <c r="B5" s="1">
-        <v>344</v>
+        <v>23000</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>6</v>
@@ -1109,10 +1105,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>20190328</v>
+        <v>20180308</v>
       </c>
       <c r="B6" s="1">
-        <v>-3055</v>
+        <v>344</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>7</v>
@@ -1120,10 +1116,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>20190428</v>
+        <v>20190328</v>
       </c>
       <c r="B7" s="1">
-        <v>-3012</v>
+        <v>-3055</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>8</v>
@@ -1131,10 +1127,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>20190529</v>
+        <v>20190428</v>
       </c>
       <c r="B8" s="1">
-        <v>-1000</v>
+        <v>-3012</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>9</v>
@@ -1142,26 +1138,32 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>20190608</v>
+        <v>20190529</v>
       </c>
       <c r="B9" s="1">
-        <v>106.33</v>
+        <v>-1000</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1">
+        <v>20190608</v>
+      </c>
       <c r="B10" s="1">
-        <f>SUM(B2:B9)</f>
-        <v>18283.33</v>
-      </c>
-      <c r="C10" s="1"/>
+        <v>106.33</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
+      <c r="B11" s="1">
+        <f>SUM(B2:B10)</f>
+        <v>18283.33</v>
+      </c>
       <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3">
@@ -1193,6 +1195,11 @@
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
